--- a/DMSNewVSale_2025-10-31_19-52.xlsx
+++ b/DMSNewVSale_2025-10-31_19-52.xlsx
@@ -605,6 +605,15 @@
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -657,9 +666,6 @@
   </si>
   <si>
     <t>NEXICURE 10 MG SACHET</t>
-  </si>
-  <si>
-    <t>140.00</t>
   </si>
   <si>
     <t>50.4000</t>
@@ -3660,11 +3666,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>33</v>
@@ -3676,14 +3682,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3693,11 +3699,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>33</v>
@@ -3709,14 +3715,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3726,14 +3732,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3749,13 +3755,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3766,7 +3772,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3782,13 +3788,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3799,7 +3805,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3815,7 +3821,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3832,7 +3838,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3848,7 +3854,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3881,13 +3887,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3898,7 +3904,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3914,24 +3920,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3940,14 +3946,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3957,14 +3963,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3973,7 +3979,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3990,14 +3996,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4013,7 +4019,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4027,10 +4033,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4039,7 +4045,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4056,14 +4062,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4079,24 +4085,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4112,24 +4118,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4145,7 +4151,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4155,14 +4161,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4171,14 +4177,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4188,14 +4194,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4211,7 +4217,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4221,14 +4227,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>158</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4237,14 +4243,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4254,14 +4260,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4270,28 +4276,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>33</v>
@@ -4303,28 +4309,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>33</v>
@@ -4336,14 +4342,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4353,14 +4359,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4369,31 +4375,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4402,31 +4408,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4435,14 +4441,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4452,14 +4458,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4475,21 +4481,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>33</v>
@@ -4501,24 +4507,24 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4541,7 +4547,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4551,11 +4557,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>33</v>
@@ -4567,7 +4573,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4584,7 +4590,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4607,7 +4613,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4617,14 +4623,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4633,14 +4639,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4650,14 +4656,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4666,7 +4672,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4683,11 +4689,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>33</v>
@@ -4699,14 +4705,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4716,11 +4722,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4732,7 +4738,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4745,15 +4751,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>33</v>
@@ -4765,28 +4771,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>33</v>
@@ -4798,14 +4804,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4815,11 +4821,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4848,14 +4854,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4864,14 +4870,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4881,14 +4887,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4897,14 +4903,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4914,14 +4920,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4930,14 +4936,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4947,14 +4953,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4970,7 +4976,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4980,11 +4986,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>159</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>33</v>
@@ -5003,7 +5009,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5013,14 +5019,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5029,31 +5035,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5062,14 +5068,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5079,11 +5085,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>33</v>
@@ -5095,14 +5101,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5112,14 +5118,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>14</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5128,14 +5134,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5145,11 +5151,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>15</v>
@@ -5161,14 +5167,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5178,14 +5184,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5211,14 +5217,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>318</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5227,7 +5233,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5244,14 +5250,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5260,14 +5266,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5277,14 +5283,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>15</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5300,7 +5306,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5310,14 +5316,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5326,14 +5332,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5343,14 +5349,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>294</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5359,14 +5365,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5376,14 +5382,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>59</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>33</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5392,14 +5398,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5409,14 +5415,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5425,14 +5431,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5442,14 +5448,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>307</v>
+        <v>13</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5458,14 +5464,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>333</v>
+        <v>154</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5475,11 +5481,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>13</v>
+        <v>309</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>33</v>
@@ -5498,7 +5504,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>30</v>
+        <v>335</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5508,11 +5514,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>59</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>33</v>
@@ -5524,14 +5530,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5541,11 +5547,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>33</v>
@@ -5557,7 +5563,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5574,11 +5580,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>33</v>
@@ -5590,14 +5596,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5607,14 +5613,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
         <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5630,7 +5636,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5640,14 +5646,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5656,14 +5662,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5673,51 +5679,84 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="128" ht="25.5" customHeight="1">
-      <c r="N128" s="13">
-        <v>8804.3600000000006</v>
-      </c>
-      <c r="O128" s="13"/>
-      <c r="P128" s="13"/>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>347</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>348</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>101</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>35</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>287</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" ht="26.25" customHeight="1">
+      <c r="N129" s="13">
+        <v>8944.3600000000006</v>
+      </c>
+      <c r="O129" s="13"/>
+      <c r="P129" s="13"/>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>349</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>350</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>351</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6331,10 +6370,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="N129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
